--- a/Code/Results/Cases/Case_9_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9965014661258905</v>
+        <v>0.9967593638751137</v>
       </c>
       <c r="D2">
-        <v>1.019820603869868</v>
+        <v>1.019746346317258</v>
       </c>
       <c r="E2">
-        <v>1.003468573299137</v>
+        <v>1.003693791197821</v>
       </c>
       <c r="F2">
-        <v>1.02446526552454</v>
+        <v>1.024546488351909</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047562029864761</v>
+        <v>1.047529456822955</v>
       </c>
       <c r="J2">
-        <v>1.018787323653717</v>
+        <v>1.019037435735613</v>
       </c>
       <c r="K2">
-        <v>1.031010543238151</v>
+        <v>1.03093727044125</v>
       </c>
       <c r="L2">
-        <v>1.014879795974853</v>
+        <v>1.015101904397753</v>
       </c>
       <c r="M2">
-        <v>1.035593965985148</v>
+        <v>1.035674124096977</v>
       </c>
       <c r="N2">
-        <v>1.010251830388433</v>
+        <v>1.012307661827839</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036742617055083</v>
+        <v>1.0368060571563</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032997333159837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032954360925411</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020377782052764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000113527022956</v>
+        <v>1.000233291103588</v>
       </c>
       <c r="D3">
-        <v>1.022257685492669</v>
+        <v>1.021996115232705</v>
       </c>
       <c r="E3">
-        <v>1.00628217699553</v>
+        <v>1.006387523209882</v>
       </c>
       <c r="F3">
-        <v>1.027154151588592</v>
+        <v>1.027170636238176</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048360560839949</v>
+        <v>1.048234520271141</v>
       </c>
       <c r="J3">
-        <v>1.020601097655636</v>
+        <v>1.020717598388014</v>
       </c>
       <c r="K3">
-        <v>1.032613480655614</v>
+        <v>1.032355079606254</v>
       </c>
       <c r="L3">
-        <v>1.016835302323513</v>
+        <v>1.016939321703322</v>
       </c>
       <c r="M3">
-        <v>1.037450990258885</v>
+        <v>1.037467277600641</v>
       </c>
       <c r="N3">
-        <v>1.010860326660412</v>
+        <v>1.0127556228836</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.0382123334556</v>
+        <v>1.038225223835532</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03412808160232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033953927498572</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020653012108966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002409801251977</v>
+        <v>1.002442695175553</v>
       </c>
       <c r="D4">
-        <v>1.023808215442793</v>
+        <v>1.023428242890148</v>
       </c>
       <c r="E4">
-        <v>1.008076789417585</v>
+        <v>1.008106630493216</v>
       </c>
       <c r="F4">
-        <v>1.028869129775267</v>
+        <v>1.028844848319794</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04885483932671</v>
+        <v>1.048669610070275</v>
       </c>
       <c r="J4">
-        <v>1.021752064297859</v>
+        <v>1.021784122286126</v>
       </c>
       <c r="K4">
-        <v>1.033627543221156</v>
+        <v>1.033251899164545</v>
       </c>
       <c r="L4">
-        <v>1.018078702366167</v>
+        <v>1.018108190413741</v>
       </c>
       <c r="M4">
-        <v>1.038631181205742</v>
+        <v>1.038607172895891</v>
       </c>
       <c r="N4">
-        <v>1.011246490061849</v>
+        <v>1.013040039700316</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039146377827821</v>
+        <v>1.039127376824262</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034846023380477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034589048194501</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020824562321632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003368124395873</v>
+        <v>1.003364978246292</v>
       </c>
       <c r="D5">
-        <v>1.024457476934689</v>
+        <v>1.024028313673528</v>
       </c>
       <c r="E5">
-        <v>1.008827473137601</v>
+        <v>1.008825957034205</v>
       </c>
       <c r="F5">
-        <v>1.029585333254543</v>
+        <v>1.029544137844757</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049059084718581</v>
+        <v>1.048849240619294</v>
       </c>
       <c r="J5">
-        <v>1.022233063382204</v>
+        <v>1.022229994807676</v>
       </c>
       <c r="K5">
-        <v>1.034051986007315</v>
+        <v>1.033627582504881</v>
       </c>
       <c r="L5">
-        <v>1.018598555437474</v>
+        <v>1.01859705678926</v>
       </c>
       <c r="M5">
-        <v>1.039123347362874</v>
+        <v>1.039082603060048</v>
       </c>
       <c r="N5">
-        <v>1.011408213479277</v>
+        <v>1.013159212093404</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039535894969988</v>
+        <v>1.039503648542197</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035153361900063</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034862619466559</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020896195398981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00353151557339</v>
+        <v>1.003522235854101</v>
       </c>
       <c r="D6">
-        <v>1.024570512702143</v>
+        <v>1.0241330518232</v>
       </c>
       <c r="E6">
-        <v>1.008955941729127</v>
+        <v>1.00894907916363</v>
       </c>
       <c r="F6">
-        <v>1.029706519986764</v>
+        <v>1.029662459696209</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049095201666145</v>
+        <v>1.04888120520089</v>
       </c>
       <c r="J6">
-        <v>1.022316478951091</v>
+        <v>1.022307426871939</v>
       </c>
       <c r="K6">
-        <v>1.034127268762001</v>
+        <v>1.033694637621226</v>
       </c>
       <c r="L6">
-        <v>1.018688287986713</v>
+        <v>1.018681504067107</v>
       </c>
       <c r="M6">
-        <v>1.039206949292052</v>
+        <v>1.039163369278914</v>
       </c>
       <c r="N6">
-        <v>1.011436669410562</v>
+        <v>1.013180218001046</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039602060377194</v>
+        <v>1.039567569674885</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035215395313072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034919703565347</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020909417835016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002430765340688</v>
+        <v>1.00247020098194</v>
       </c>
       <c r="D7">
-        <v>1.023828600429257</v>
+        <v>1.023452837601257</v>
       </c>
       <c r="E7">
-        <v>1.00809427975027</v>
+        <v>1.008129963696677</v>
       </c>
       <c r="F7">
-        <v>1.028882104073521</v>
+        <v>1.028860592300789</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048863271724645</v>
+        <v>1.048680231755097</v>
       </c>
       <c r="J7">
-        <v>1.021766427611981</v>
+        <v>1.021804861505004</v>
       </c>
       <c r="K7">
-        <v>1.033644788237177</v>
+        <v>1.033273304288062</v>
       </c>
       <c r="L7">
-        <v>1.018093016794132</v>
+        <v>1.018128278752498</v>
       </c>
       <c r="M7">
-        <v>1.038641120783761</v>
+        <v>1.03861985091106</v>
       </c>
       <c r="N7">
-        <v>1.011252433388989</v>
+        <v>1.013072365034665</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.03915424435216</v>
+        <v>1.039137410642317</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034878462241322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034626426553577</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020830424986647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9977407938342202</v>
+        <v>0.997973595452983</v>
       </c>
       <c r="D8">
-        <v>1.020663962384927</v>
+        <v>1.020541124226444</v>
       </c>
       <c r="E8">
-        <v>1.004434076316622</v>
+        <v>1.004638121269149</v>
       </c>
       <c r="F8">
-        <v>1.025383304215118</v>
+        <v>1.025451815021684</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047843448386157</v>
+        <v>1.047786917704749</v>
       </c>
       <c r="J8">
-        <v>1.019414734449235</v>
+        <v>1.019640743139906</v>
       </c>
       <c r="K8">
-        <v>1.031571117071676</v>
+        <v>1.031449859855727</v>
       </c>
       <c r="L8">
-        <v>1.015554318354915</v>
+        <v>1.015755630660516</v>
       </c>
       <c r="M8">
-        <v>1.036230078642324</v>
+        <v>1.036297718018629</v>
       </c>
       <c r="N8">
-        <v>1.010463768254467</v>
+        <v>1.012548475380366</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037246060037398</v>
+        <v>1.037299592309746</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.0334167844657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033342147128248</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020480851665341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9891367434498971</v>
+        <v>0.9897078389186118</v>
       </c>
       <c r="D9">
-        <v>1.0148603828282</v>
+        <v>1.015189881968454</v>
       </c>
       <c r="E9">
-        <v>0.9977659604563663</v>
+        <v>0.9982628616786867</v>
       </c>
       <c r="F9">
-        <v>1.019015262502997</v>
+        <v>1.019241854401305</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045862835390302</v>
+        <v>1.046031420333464</v>
       </c>
       <c r="J9">
-        <v>1.015079030814889</v>
+        <v>1.015629349213008</v>
       </c>
       <c r="K9">
-        <v>1.027716875357761</v>
+        <v>1.028041229067121</v>
       </c>
       <c r="L9">
-        <v>1.010895387681502</v>
+        <v>1.011384185755004</v>
       </c>
       <c r="M9">
-        <v>1.031807183855577</v>
+        <v>1.032030273610724</v>
       </c>
       <c r="N9">
-        <v>1.009008150878127</v>
+        <v>1.01148795119725</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033745610825656</v>
+        <v>1.033922173062051</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030688338166063</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030928510376166</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.01980367623747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9832116813877882</v>
+        <v>0.984052846842616</v>
       </c>
       <c r="D10">
-        <v>1.010879080490001</v>
+        <v>1.011545568523852</v>
       </c>
       <c r="E10">
-        <v>0.9932157166206278</v>
+        <v>0.9939460777743658</v>
       </c>
       <c r="F10">
-        <v>1.014839068854377</v>
+        <v>1.015190390167841</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044455525880367</v>
+        <v>1.044791703117601</v>
       </c>
       <c r="J10">
-        <v>1.012107589887937</v>
+        <v>1.012913781259023</v>
       </c>
       <c r="K10">
-        <v>1.025054649207269</v>
+        <v>1.02570944689425</v>
       </c>
       <c r="L10">
-        <v>1.007708553398799</v>
+        <v>1.00842550477137</v>
       </c>
       <c r="M10">
-        <v>1.028945470284024</v>
+        <v>1.029290688958648</v>
       </c>
       <c r="N10">
-        <v>1.008016374589829</v>
+        <v>1.010885316632389</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03153260685385</v>
+        <v>1.031805810373052</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028822901429034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02929840460314</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019332952674619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9809543392688095</v>
+        <v>0.981938991989313</v>
       </c>
       <c r="D11">
-        <v>1.009383862202411</v>
+        <v>1.010207263458736</v>
       </c>
       <c r="E11">
-        <v>0.991541943642777</v>
+        <v>0.9923948321217998</v>
       </c>
       <c r="F11">
-        <v>1.014641659877197</v>
+        <v>1.015058505597072</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044075564957964</v>
+        <v>1.044490922842461</v>
       </c>
       <c r="J11">
-        <v>1.011141479867004</v>
+        <v>1.012082922482603</v>
       </c>
       <c r="K11">
-        <v>1.024130956120842</v>
+        <v>1.024939219218678</v>
       </c>
       <c r="L11">
-        <v>1.006625148890645</v>
+        <v>1.007461610187677</v>
       </c>
       <c r="M11">
-        <v>1.02929263923599</v>
+        <v>1.029701920267744</v>
       </c>
       <c r="N11">
-        <v>1.007738121908489</v>
+        <v>1.010924597629127</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032246722141699</v>
+        <v>1.032570458677869</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028202939946463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028790164184108</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019200441156147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9802009872499895</v>
+        <v>0.9812371696635871</v>
       </c>
       <c r="D12">
-        <v>1.008875171079382</v>
+        <v>1.009754593556516</v>
       </c>
       <c r="E12">
-        <v>0.9910018404155078</v>
+        <v>0.991897449302107</v>
       </c>
       <c r="F12">
-        <v>1.015109687006447</v>
+        <v>1.015550589445289</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043997431755905</v>
+        <v>1.044441298562731</v>
       </c>
       <c r="J12">
-        <v>1.010867573477071</v>
+        <v>1.011857394403872</v>
       </c>
       <c r="K12">
-        <v>1.023834289478001</v>
+        <v>1.024697267074591</v>
       </c>
       <c r="L12">
-        <v>1.006303485507625</v>
+        <v>1.007181545338892</v>
       </c>
       <c r="M12">
-        <v>1.029953023629193</v>
+        <v>1.030385808151718</v>
       </c>
       <c r="N12">
-        <v>1.007680494079157</v>
+        <v>1.010989616709493</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.0330974031137</v>
+        <v>1.033439613392335</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027993183385917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028619097121038</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019163984150851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9805667883525929</v>
+        <v>0.9815766989486205</v>
       </c>
       <c r="D13">
-        <v>1.009107468085116</v>
+        <v>1.009961587614996</v>
       </c>
       <c r="E13">
-        <v>0.9913064292390904</v>
+        <v>0.9921772801165056</v>
       </c>
       <c r="F13">
-        <v>1.016146537049205</v>
+        <v>1.016577023223057</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04416038332774</v>
+        <v>1.044591950395728</v>
       </c>
       <c r="J13">
-        <v>1.011121268190373</v>
+        <v>1.012086205255535</v>
       </c>
       <c r="K13">
-        <v>1.024018783855265</v>
+        <v>1.024856994232896</v>
       </c>
       <c r="L13">
-        <v>1.006557500456006</v>
+        <v>1.007411358046112</v>
       </c>
       <c r="M13">
-        <v>1.030927779637587</v>
+        <v>1.031350387068257</v>
       </c>
       <c r="N13">
-        <v>1.007794767612344</v>
+        <v>1.011047543294571</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034146127994706</v>
+        <v>1.034480206381083</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.028121113198954</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028729270970725</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019204052407637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9813259956692207</v>
+        <v>0.9822835809157261</v>
       </c>
       <c r="D14">
-        <v>1.009603612853498</v>
+        <v>1.01040427981823</v>
       </c>
       <c r="E14">
-        <v>0.9918988666648488</v>
+        <v>0.9927231896376558</v>
       </c>
       <c r="F14">
-        <v>1.017116416608584</v>
+        <v>1.017524689194808</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.0443804982107</v>
+        <v>1.04478551256547</v>
       </c>
       <c r="J14">
-        <v>1.011533609680751</v>
+        <v>1.012449156154161</v>
       </c>
       <c r="K14">
-        <v>1.024363397908126</v>
+        <v>1.025149333337197</v>
       </c>
       <c r="L14">
-        <v>1.006992364661791</v>
+        <v>1.007800804126038</v>
       </c>
       <c r="M14">
-        <v>1.031739158973633</v>
+        <v>1.032140059538599</v>
       </c>
       <c r="N14">
-        <v>1.007951203139508</v>
+        <v>1.011085314169618</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034961497401286</v>
+        <v>1.035278373128101</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028366208833645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028937539397248</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019266443013086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9817626658704099</v>
+        <v>0.9826907075671228</v>
       </c>
       <c r="D15">
-        <v>1.009894972416535</v>
+        <v>1.010664686053113</v>
       </c>
       <c r="E15">
-        <v>0.9922348712423852</v>
+        <v>0.993033372080973</v>
       </c>
       <c r="F15">
-        <v>1.017509540548289</v>
+        <v>1.017904929681972</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044493846825365</v>
+        <v>1.044883420035984</v>
       </c>
       <c r="J15">
-        <v>1.011758509734448</v>
+        <v>1.012646165172052</v>
       </c>
       <c r="K15">
-        <v>1.024561761268669</v>
+        <v>1.025317419817885</v>
       </c>
       <c r="L15">
-        <v>1.007231976122622</v>
+        <v>1.008015209893171</v>
       </c>
       <c r="M15">
-        <v>1.032038501240732</v>
+        <v>1.032426806745397</v>
       </c>
       <c r="N15">
-        <v>1.008030482715073</v>
+        <v>1.01109871898068</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035235758905841</v>
+        <v>1.035542671267746</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.028512386243585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029062876738311</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019301220153456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9842008684559392</v>
+        <v>0.9849717481266518</v>
       </c>
       <c r="D16">
-        <v>1.011541021068971</v>
+        <v>1.012139494859462</v>
       </c>
       <c r="E16">
-        <v>0.9940962591035996</v>
+        <v>0.9947590359119127</v>
       </c>
       <c r="F16">
-        <v>1.019130315077299</v>
+        <v>1.019455114033484</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045080176971199</v>
+        <v>1.045384166620509</v>
       </c>
       <c r="J16">
-        <v>1.012976814375549</v>
+        <v>1.013715833357176</v>
       </c>
       <c r="K16">
-        <v>1.025668904031317</v>
+        <v>1.026256928042631</v>
       </c>
       <c r="L16">
-        <v>1.008535937996196</v>
+        <v>1.009186608639334</v>
       </c>
       <c r="M16">
-        <v>1.03312685829687</v>
+        <v>1.033446092694172</v>
       </c>
       <c r="N16">
-        <v>1.008431836072897</v>
+        <v>1.011172036166323</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036057142765072</v>
+        <v>1.036309469319027</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029298383814695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029730643298418</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019492094061478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9856787921467193</v>
+        <v>0.9863639076031984</v>
       </c>
       <c r="D17">
-        <v>1.012548322966168</v>
+        <v>1.013048383074125</v>
       </c>
       <c r="E17">
-        <v>0.9952199732032002</v>
+        <v>0.9958092087678169</v>
       </c>
       <c r="F17">
-        <v>1.019863831261892</v>
+        <v>1.020149097662109</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045413547686891</v>
+        <v>1.045668300637397</v>
       </c>
       <c r="J17">
-        <v>1.013698659549645</v>
+        <v>1.014356377596035</v>
       </c>
       <c r="K17">
-        <v>1.026339854617919</v>
+        <v>1.026831430571894</v>
       </c>
       <c r="L17">
-        <v>1.009312335925722</v>
+        <v>1.009891118911517</v>
       </c>
       <c r="M17">
-        <v>1.033532314524479</v>
+        <v>1.03381282873287</v>
       </c>
       <c r="N17">
-        <v>1.008658863220973</v>
+        <v>1.011238021017986</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036248117646541</v>
+        <v>1.03646986151445</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029775388032906</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030139698130752</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019606788089206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9864474311793408</v>
+        <v>0.9870921754861848</v>
       </c>
       <c r="D18">
-        <v>1.013075456736035</v>
+        <v>1.013526001486475</v>
       </c>
       <c r="E18">
-        <v>0.9957906433260441</v>
+        <v>0.9963460315405607</v>
       </c>
       <c r="F18">
-        <v>1.019791988369198</v>
+        <v>1.02005749852529</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04554125281619</v>
+        <v>1.045771054829374</v>
       </c>
       <c r="J18">
-        <v>1.014032399759512</v>
+        <v>1.014651853047461</v>
       </c>
       <c r="K18">
-        <v>1.026672244145765</v>
+        <v>1.027115272722301</v>
       </c>
       <c r="L18">
-        <v>1.009682433493506</v>
+        <v>1.010228136733712</v>
       </c>
       <c r="M18">
-        <v>1.033277613145098</v>
+        <v>1.033538767623853</v>
       </c>
       <c r="N18">
-        <v>1.008745597506584</v>
+        <v>1.011258046058421</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035808049313051</v>
+        <v>1.03601453283937</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029998664003653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030327513547787</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019657951375177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9865475361352902</v>
+        <v>0.9871910726715289</v>
       </c>
       <c r="D19">
-        <v>1.013149434210674</v>
+        <v>1.013595343224792</v>
       </c>
       <c r="E19">
-        <v>0.9958375558196088</v>
+        <v>0.996393368735769</v>
       </c>
       <c r="F19">
-        <v>1.01892476374732</v>
+        <v>1.0191881558045</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045468999594756</v>
+        <v>1.045696053276543</v>
       </c>
       <c r="J19">
-        <v>1.013990912324036</v>
+        <v>1.014609360549963</v>
       </c>
       <c r="K19">
-        <v>1.026681639518096</v>
+        <v>1.027120150827129</v>
       </c>
       <c r="L19">
-        <v>1.009663595831838</v>
+        <v>1.010209769651023</v>
       </c>
       <c r="M19">
-        <v>1.032361799581287</v>
+        <v>1.032620884355196</v>
       </c>
       <c r="N19">
-        <v>1.008700266177113</v>
+        <v>1.011213194139859</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034756648689847</v>
+        <v>1.034961563411363</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030011755892467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030338033655552</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019647219902679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9847670510011441</v>
+        <v>0.9855163011820666</v>
       </c>
       <c r="D20">
-        <v>1.011937396435008</v>
+        <v>1.012501521934528</v>
       </c>
       <c r="E20">
-        <v>0.9944108881309106</v>
+        <v>0.9950610893656278</v>
       </c>
       <c r="F20">
-        <v>1.015934763106211</v>
+        <v>1.016244526976332</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044839041816859</v>
+        <v>1.045124132993904</v>
       </c>
       <c r="J20">
-        <v>1.012898074662904</v>
+        <v>1.013617192794896</v>
       </c>
       <c r="K20">
-        <v>1.025773539348843</v>
+        <v>1.026328052275457</v>
       </c>
       <c r="L20">
-        <v>1.008552732476496</v>
+        <v>1.009191343080983</v>
       </c>
       <c r="M20">
-        <v>1.029703088738883</v>
+        <v>1.030007626045178</v>
       </c>
       <c r="N20">
-        <v>1.008283710549008</v>
+        <v>1.010975634885446</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032121548976638</v>
+        <v>1.032362560501283</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029373636370469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029782323544748</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019460346492443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9802433778224821</v>
+        <v>0.9813021845126668</v>
       </c>
       <c r="D21">
-        <v>1.008894335965304</v>
+        <v>1.009786962300623</v>
       </c>
       <c r="E21">
-        <v>0.9909390902656219</v>
+        <v>0.9918603197238036</v>
       </c>
       <c r="F21">
-        <v>1.012488180037061</v>
+        <v>1.012937118783588</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043705780255086</v>
+        <v>1.044155017016017</v>
       </c>
       <c r="J21">
-        <v>1.010590985587989</v>
+        <v>1.011603002204215</v>
       </c>
       <c r="K21">
-        <v>1.023709139205009</v>
+        <v>1.024585260016558</v>
       </c>
       <c r="L21">
-        <v>1.00609418200178</v>
+        <v>1.006997559334843</v>
       </c>
       <c r="M21">
-        <v>1.027236760532503</v>
+        <v>1.027677469807861</v>
       </c>
       <c r="N21">
-        <v>1.007505284119196</v>
+        <v>1.010854962291534</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03012838354112</v>
+        <v>1.030477180411539</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02791726199399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028553675717785</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019104932596854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9773590185532012</v>
+        <v>0.9786142565380113</v>
       </c>
       <c r="D22">
-        <v>1.006953417412881</v>
+        <v>1.008054484612098</v>
       </c>
       <c r="E22">
-        <v>0.9887354843143877</v>
+        <v>0.9898285472599013</v>
       </c>
       <c r="F22">
-        <v>1.010389908502251</v>
+        <v>1.010927308804056</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042978113771171</v>
+        <v>1.043531379853055</v>
       </c>
       <c r="J22">
-        <v>1.00912614580479</v>
+        <v>1.010322658473036</v>
       </c>
       <c r="K22">
-        <v>1.022388372917299</v>
+        <v>1.023468051620954</v>
       </c>
       <c r="L22">
-        <v>1.004533445744247</v>
+        <v>1.005604231918205</v>
       </c>
       <c r="M22">
-        <v>1.025758311446508</v>
+        <v>1.026285357803212</v>
       </c>
       <c r="N22">
-        <v>1.007012257105765</v>
+        <v>1.010771666578322</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028958272068376</v>
+        <v>1.029375400618756</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.02696977439975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.02774882231513</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018874947748231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9788865967155047</v>
+        <v>0.9800260627222245</v>
       </c>
       <c r="D23">
-        <v>1.007976183474918</v>
+        <v>1.008958538861257</v>
       </c>
       <c r="E23">
-        <v>0.9899005941258586</v>
+        <v>0.9908921322039508</v>
       </c>
       <c r="F23">
-        <v>1.011502790113622</v>
+        <v>1.011988266896616</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043361910243967</v>
+        <v>1.043855820242334</v>
       </c>
       <c r="J23">
-        <v>1.009898930925233</v>
+        <v>1.010986662862372</v>
       </c>
       <c r="K23">
-        <v>1.023082079384349</v>
+        <v>1.024045840281641</v>
       </c>
       <c r="L23">
-        <v>1.00535729286923</v>
+        <v>1.006329151634603</v>
       </c>
       <c r="M23">
-        <v>1.02654215201244</v>
+        <v>1.027018517060344</v>
       </c>
       <c r="N23">
-        <v>1.00727112053126</v>
+        <v>1.010771303965446</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029578639189423</v>
+        <v>1.029955655911059</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027450535892954</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028146680820984</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018992511442821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9847926985564698</v>
+        <v>0.9855415248127032</v>
       </c>
       <c r="D24">
-        <v>1.011944556426932</v>
+        <v>1.012507466175095</v>
       </c>
       <c r="E24">
-        <v>0.9944237725161318</v>
+        <v>0.9950738858089275</v>
       </c>
       <c r="F24">
-        <v>1.015818877772795</v>
+        <v>1.016128285521698</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04482330051072</v>
+        <v>1.045107704534785</v>
       </c>
       <c r="J24">
-        <v>1.012888974756249</v>
+        <v>1.013607730686928</v>
       </c>
       <c r="K24">
-        <v>1.025765109710713</v>
+        <v>1.02631844008613</v>
       </c>
       <c r="L24">
-        <v>1.008549525760532</v>
+        <v>1.009188065345834</v>
       </c>
       <c r="M24">
-        <v>1.029573776648474</v>
+        <v>1.029877969005572</v>
       </c>
       <c r="N24">
-        <v>1.008274852011662</v>
+        <v>1.010965039976697</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03197799977066</v>
+        <v>1.032218750475526</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029340030007094</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029745213377757</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019454499507293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9914141848758564</v>
+        <v>0.9918856633600949</v>
       </c>
       <c r="D25">
-        <v>1.016403891878566</v>
+        <v>1.016607077355142</v>
       </c>
       <c r="E25">
-        <v>0.9995269025240285</v>
+        <v>0.9999373891975707</v>
       </c>
       <c r="F25">
-        <v>1.020690879627918</v>
+        <v>1.020871423079483</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046404423966097</v>
+        <v>1.046510145373953</v>
       </c>
       <c r="J25">
-        <v>1.016233991483934</v>
+        <v>1.016689227452757</v>
       </c>
       <c r="K25">
-        <v>1.028752785809144</v>
+        <v>1.028952946020642</v>
       </c>
       <c r="L25">
-        <v>1.012132567163562</v>
+        <v>1.012536677195839</v>
       </c>
       <c r="M25">
-        <v>1.03297626820313</v>
+        <v>1.03315415203641</v>
       </c>
       <c r="N25">
-        <v>1.009397807595662</v>
+        <v>1.01173901525708</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034670870872069</v>
+        <v>1.034811655136034</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031449617638815</v>
+        <v>1.031604773646715</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019988294055341</v>
       </c>
     </row>
   </sheetData>
